--- a/Assets/Economy/Лист Microsoft Excel.xlsx
+++ b/Assets/Economy/Лист Microsoft Excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Плащ</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>Рис</t>
+  </si>
+  <si>
+    <t>Зеленый чай</t>
+  </si>
+  <si>
+    <t>Черный чай</t>
+  </si>
+  <si>
+    <t>Чайник</t>
   </si>
 </sst>
 </file>
@@ -471,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,6 +831,21 @@
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Economy/Лист Microsoft Excel.xlsx
+++ b/Assets/Economy/Лист Microsoft Excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Плащ</t>
   </si>
@@ -142,6 +142,36 @@
   </si>
   <si>
     <t>Чайник</t>
+  </si>
+  <si>
+    <t>Паприка</t>
+  </si>
+  <si>
+    <t>Тмин</t>
+  </si>
+  <si>
+    <t>Лавровый лист</t>
+  </si>
+  <si>
+    <t>Кумин</t>
+  </si>
+  <si>
+    <t>Куркума</t>
+  </si>
+  <si>
+    <t>Шафран</t>
+  </si>
+  <si>
+    <t>Сушеные томаты</t>
+  </si>
+  <si>
+    <t>Эфиоморника</t>
+  </si>
+  <si>
+    <t>Имбирь</t>
+  </si>
+  <si>
+    <t>Аотбоат</t>
   </si>
 </sst>
 </file>
@@ -480,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -848,8 +878,59 @@
         <v>41</v>
       </c>
     </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Assets/Economy/Лист Microsoft Excel.xlsx
+++ b/Assets/Economy/Лист Microsoft Excel.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01690B6-86DF-46D9-8ED4-0EB39BDE9C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Плащ</t>
   </si>
@@ -172,12 +173,18 @@
   </si>
   <si>
     <t>Аотбоат</t>
+  </si>
+  <si>
+    <t>Графин</t>
+  </si>
+  <si>
+    <t>Бутылек маны</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -218,6 +225,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -266,7 +276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,9 +309,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,6 +361,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -509,11 +553,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,6 +972,16 @@
         <v>51</v>
       </c>
     </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -935,7 +989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -947,7 +1001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Assets/Economy/Лист Microsoft Excel.xlsx
+++ b/Assets/Economy/Лист Microsoft Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01690B6-86DF-46D9-8ED4-0EB39BDE9C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDE725D-D1B0-4206-B20A-2D25622B50B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Плащ</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Белая ваза</t>
   </si>
   <si>
-    <t>Камзол</t>
-  </si>
-  <si>
     <t>Рубаха</t>
   </si>
   <si>
@@ -179,6 +176,24 @@
   </si>
   <si>
     <t>Бутылек маны</t>
+  </si>
+  <si>
+    <t>Золотое колье</t>
+  </si>
+  <si>
+    <t>Юбка</t>
+  </si>
+  <si>
+    <t>Платье</t>
+  </si>
+  <si>
+    <t>Мундир</t>
+  </si>
+  <si>
+    <t>Папоротник</t>
+  </si>
+  <si>
+    <t>Горшок</t>
   </si>
 </sst>
 </file>
@@ -554,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,13 +585,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -623,7 +638,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="B5">
         <v>260</v>
@@ -637,7 +652,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>260</v>
@@ -651,7 +666,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>260</v>
@@ -665,7 +680,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>260</v>
@@ -679,7 +694,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>260</v>
@@ -693,7 +708,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>260</v>
@@ -707,7 +722,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>260</v>
@@ -721,7 +736,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>260</v>
@@ -735,7 +750,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>260</v>
@@ -749,7 +764,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>260</v>
@@ -763,7 +778,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>260</v>
@@ -777,7 +792,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>260</v>
@@ -791,7 +806,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>260</v>
@@ -805,7 +820,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>260</v>
@@ -819,167 +834,192 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Economy/Лист Microsoft Excel.xlsx
+++ b/Assets/Economy/Лист Microsoft Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDE725D-D1B0-4206-B20A-2D25622B50B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B256E6C-9252-49DD-84E0-432A7078D82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Плащ</t>
   </si>
@@ -194,6 +194,24 @@
   </si>
   <si>
     <t>Горшок</t>
+  </si>
+  <si>
+    <t>Белая рыбка</t>
+  </si>
+  <si>
+    <t>Желтая рыбка</t>
+  </si>
+  <si>
+    <t>Ораниумбра</t>
+  </si>
+  <si>
+    <t>Голубая рыбка</t>
+  </si>
+  <si>
+    <t>Горбата</t>
+  </si>
+  <si>
+    <t>Сельдара</t>
   </si>
 </sst>
 </file>
@@ -569,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1020,6 +1038,36 @@
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Economy/Лист Microsoft Excel.xlsx
+++ b/Assets/Economy/Лист Microsoft Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B256E6C-9252-49DD-84E0-432A7078D82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BFA1B8-8111-41A4-92FD-3FBE4A4472D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Плащ</t>
   </si>
@@ -212,6 +212,51 @@
   </si>
   <si>
     <t>Сельдара</t>
+  </si>
+  <si>
+    <t>Семена лундера</t>
+  </si>
+  <si>
+    <t>Семена древомрака</t>
+  </si>
+  <si>
+    <t>Семена пурпурня</t>
+  </si>
+  <si>
+    <t>Семена огнецвета</t>
+  </si>
+  <si>
+    <t>Семена звездоцвета</t>
+  </si>
+  <si>
+    <t>Семена лунной лилии</t>
+  </si>
+  <si>
+    <t>Лундер</t>
+  </si>
+  <si>
+    <t>Кокосик</t>
+  </si>
+  <si>
+    <t>Зеленоросты</t>
+  </si>
+  <si>
+    <t>Суши красная рыба</t>
+  </si>
+  <si>
+    <t>Суши агутанами</t>
+  </si>
+  <si>
+    <t>Сет суши</t>
+  </si>
+  <si>
+    <t>Молоко</t>
+  </si>
+  <si>
+    <t>Напиток востока</t>
+  </si>
+  <si>
+    <t>Южный напиток</t>
   </si>
 </sst>
 </file>
@@ -587,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1068,6 +1113,81 @@
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Economy/Лист Microsoft Excel.xlsx
+++ b/Assets/Economy/Лист Microsoft Excel.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7BFA1B8-8111-41A4-92FD-3FBE4A4472D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1B3D9C-AAEA-471C-8838-3AEBC34BC6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -312,9 +312,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -352,9 +352,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,26 +387,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,26 +422,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -634,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,295 +865,826 @@
       <c r="A19" t="s">
         <v>20</v>
       </c>
+      <c r="B19">
+        <v>260</v>
+      </c>
+      <c r="C19">
+        <v>700</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
+      <c r="B20">
+        <v>260</v>
+      </c>
+      <c r="C20">
+        <v>700</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
+      <c r="B21">
+        <v>260</v>
+      </c>
+      <c r="C21">
+        <v>700</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
+      <c r="B22">
+        <v>260</v>
+      </c>
+      <c r="C22">
+        <v>700</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
+      <c r="B23">
+        <v>260</v>
+      </c>
+      <c r="C23">
+        <v>700</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
+      <c r="B24">
+        <v>260</v>
+      </c>
+      <c r="C24">
+        <v>700</v>
+      </c>
+      <c r="D24">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
+      <c r="B25">
+        <v>260</v>
+      </c>
+      <c r="C25">
+        <v>700</v>
+      </c>
+      <c r="D25">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
+      <c r="B26">
+        <v>260</v>
+      </c>
+      <c r="C26">
+        <v>700</v>
+      </c>
+      <c r="D26">
+        <v>40</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
+      <c r="B27">
+        <v>260</v>
+      </c>
+      <c r="C27">
+        <v>700</v>
+      </c>
+      <c r="D27">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>30</v>
       </c>
+      <c r="B28">
+        <v>260</v>
+      </c>
+      <c r="C28">
+        <v>700</v>
+      </c>
+      <c r="D28">
+        <v>40</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
+      <c r="B29">
+        <v>260</v>
+      </c>
+      <c r="C29">
+        <v>700</v>
+      </c>
+      <c r="D29">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
+      <c r="B30">
+        <v>260</v>
+      </c>
+      <c r="C30">
+        <v>700</v>
+      </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>32</v>
       </c>
+      <c r="B31">
+        <v>260</v>
+      </c>
+      <c r="C31">
+        <v>700</v>
+      </c>
+      <c r="D31">
+        <v>40</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>260</v>
+      </c>
+      <c r="C32">
+        <v>700</v>
+      </c>
+      <c r="D32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>260</v>
+      </c>
+      <c r="C33">
+        <v>700</v>
+      </c>
+      <c r="D33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>260</v>
+      </c>
+      <c r="C34">
+        <v>700</v>
+      </c>
+      <c r="D34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>260</v>
+      </c>
+      <c r="C35">
+        <v>700</v>
+      </c>
+      <c r="D35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>260</v>
+      </c>
+      <c r="C36">
+        <v>700</v>
+      </c>
+      <c r="D36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>260</v>
+      </c>
+      <c r="C37">
+        <v>700</v>
+      </c>
+      <c r="D37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>260</v>
+      </c>
+      <c r="C38">
+        <v>700</v>
+      </c>
+      <c r="D38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>260</v>
+      </c>
+      <c r="C39">
+        <v>700</v>
+      </c>
+      <c r="D39">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>260</v>
+      </c>
+      <c r="C40">
+        <v>700</v>
+      </c>
+      <c r="D40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>260</v>
+      </c>
+      <c r="C41">
+        <v>700</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>260</v>
+      </c>
+      <c r="C42">
+        <v>700</v>
+      </c>
+      <c r="D42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>260</v>
+      </c>
+      <c r="C43">
+        <v>700</v>
+      </c>
+      <c r="D43">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>260</v>
+      </c>
+      <c r="C44">
+        <v>700</v>
+      </c>
+      <c r="D44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>260</v>
+      </c>
+      <c r="C45">
+        <v>700</v>
+      </c>
+      <c r="D45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>260</v>
+      </c>
+      <c r="C46">
+        <v>700</v>
+      </c>
+      <c r="D46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>260</v>
+      </c>
+      <c r="C47">
+        <v>700</v>
+      </c>
+      <c r="D47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>260</v>
+      </c>
+      <c r="C48">
+        <v>700</v>
+      </c>
+      <c r="D48">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>260</v>
+      </c>
+      <c r="C49">
+        <v>700</v>
+      </c>
+      <c r="D49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>260</v>
+      </c>
+      <c r="C50">
+        <v>700</v>
+      </c>
+      <c r="D50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>260</v>
+      </c>
+      <c r="C51">
+        <v>700</v>
+      </c>
+      <c r="D51">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>260</v>
+      </c>
+      <c r="C52">
+        <v>700</v>
+      </c>
+      <c r="D52">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>260</v>
+      </c>
+      <c r="C53">
+        <v>700</v>
+      </c>
+      <c r="D53">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>260</v>
+      </c>
+      <c r="C54">
+        <v>700</v>
+      </c>
+      <c r="D54">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>260</v>
+      </c>
+      <c r="C55">
+        <v>700</v>
+      </c>
+      <c r="D55">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>260</v>
+      </c>
+      <c r="C56">
+        <v>700</v>
+      </c>
+      <c r="D56">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>260</v>
+      </c>
+      <c r="C57">
+        <v>700</v>
+      </c>
+      <c r="D57">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>260</v>
+      </c>
+      <c r="C58">
+        <v>700</v>
+      </c>
+      <c r="D58">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>260</v>
+      </c>
+      <c r="C59">
+        <v>700</v>
+      </c>
+      <c r="D59">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>260</v>
+      </c>
+      <c r="C60">
+        <v>700</v>
+      </c>
+      <c r="D60">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>260</v>
+      </c>
+      <c r="C61">
+        <v>700</v>
+      </c>
+      <c r="D61">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>260</v>
+      </c>
+      <c r="C62">
+        <v>700</v>
+      </c>
+      <c r="D62">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>260</v>
+      </c>
+      <c r="C63">
+        <v>700</v>
+      </c>
+      <c r="D63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>260</v>
+      </c>
+      <c r="C64">
+        <v>700</v>
+      </c>
+      <c r="D64">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>260</v>
+      </c>
+      <c r="C65">
+        <v>700</v>
+      </c>
+      <c r="D65">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>260</v>
+      </c>
+      <c r="C66">
+        <v>700</v>
+      </c>
+      <c r="D66">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>260</v>
+      </c>
+      <c r="C67">
+        <v>700</v>
+      </c>
+      <c r="D67">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>260</v>
+      </c>
+      <c r="C68">
+        <v>700</v>
+      </c>
+      <c r="D68">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>260</v>
+      </c>
+      <c r="C69">
+        <v>700</v>
+      </c>
+      <c r="D69">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>260</v>
+      </c>
+      <c r="C70">
+        <v>700</v>
+      </c>
+      <c r="D70">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>260</v>
+      </c>
+      <c r="C71">
+        <v>700</v>
+      </c>
+      <c r="D71">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>260</v>
+      </c>
+      <c r="C72">
+        <v>700</v>
+      </c>
+      <c r="D72">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>260</v>
+      </c>
+      <c r="C73">
+        <v>700</v>
+      </c>
+      <c r="D73">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>260</v>
+      </c>
+      <c r="C74">
+        <v>700</v>
+      </c>
+      <c r="D74">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>260</v>
+      </c>
+      <c r="C75">
+        <v>700</v>
+      </c>
+      <c r="D75">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>260</v>
+      </c>
+      <c r="C76">
+        <v>700</v>
+      </c>
+      <c r="D76">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>79</v>
+      </c>
+      <c r="B77">
+        <v>260</v>
+      </c>
+      <c r="C77">
+        <v>700</v>
+      </c>
+      <c r="D77">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Economy/Лист Microsoft Excel.xlsx
+++ b/Assets/Economy/Лист Microsoft Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1B3D9C-AAEA-471C-8838-3AEBC34BC6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C965DEA-45BE-4B1A-9C4F-328CEBEE8974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Плащ</t>
   </si>
@@ -257,6 +257,30 @@
   </si>
   <si>
     <t>Южный напиток</t>
+  </si>
+  <si>
+    <t>Тарелка</t>
+  </si>
+  <si>
+    <t>Пирог</t>
+  </si>
+  <si>
+    <t>Хлеб</t>
+  </si>
+  <si>
+    <t>Багет</t>
+  </si>
+  <si>
+    <t>Чизкейк</t>
+  </si>
+  <si>
+    <t>Бекон</t>
+  </si>
+  <si>
+    <t>Шоколад</t>
+  </si>
+  <si>
+    <t>Печеники</t>
   </si>
 </sst>
 </file>
@@ -598,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1685,6 +1709,46 @@
       </c>
       <c r="D77">
         <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Economy/Лист Microsoft Excel.xlsx
+++ b/Assets/Economy/Лист Microsoft Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C965DEA-45BE-4B1A-9C4F-328CEBEE8974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CACDF3B-21BB-4DF8-AD8C-B428F384402B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Плащ</t>
   </si>
@@ -281,6 +281,21 @@
   </si>
   <si>
     <t>Печеники</t>
+  </si>
+  <si>
+    <t>Яичница</t>
+  </si>
+  <si>
+    <t>Малиновое варенье</t>
+  </si>
+  <si>
+    <t>Сендвич</t>
+  </si>
+  <si>
+    <t>Стейк</t>
+  </si>
+  <si>
+    <t>Торт</t>
   </si>
 </sst>
 </file>
@@ -622,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1749,6 +1764,31 @@
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Economy/Лист Microsoft Excel.xlsx
+++ b/Assets/Economy/Лист Microsoft Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CACDF3B-21BB-4DF8-AD8C-B428F384402B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A220E5-BC90-41F0-BAC6-AD9767866943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Плащ</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>Торт</t>
+  </si>
+  <si>
+    <t>Пустая бутылка</t>
+  </si>
+  <si>
+    <t>Бутылка с водой</t>
   </si>
 </sst>
 </file>
@@ -637,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+      <selection activeCell="B86" sqref="B86:D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1730,65 +1736,210 @@
       <c r="A78" t="s">
         <v>80</v>
       </c>
+      <c r="B78">
+        <v>260</v>
+      </c>
+      <c r="C78">
+        <v>700</v>
+      </c>
+      <c r="D78">
+        <v>40</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>81</v>
       </c>
+      <c r="B79">
+        <v>260</v>
+      </c>
+      <c r="C79">
+        <v>700</v>
+      </c>
+      <c r="D79">
+        <v>40</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>260</v>
+      </c>
+      <c r="C80">
+        <v>700</v>
+      </c>
+      <c r="D80">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>260</v>
+      </c>
+      <c r="C81">
+        <v>700</v>
+      </c>
+      <c r="D81">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>260</v>
+      </c>
+      <c r="C82">
+        <v>700</v>
+      </c>
+      <c r="D82">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>260</v>
+      </c>
+      <c r="C83">
+        <v>700</v>
+      </c>
+      <c r="D83">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>260</v>
+      </c>
+      <c r="C84">
+        <v>700</v>
+      </c>
+      <c r="D84">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>260</v>
+      </c>
+      <c r="C85">
+        <v>700</v>
+      </c>
+      <c r="D85">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>260</v>
+      </c>
+      <c r="C86">
+        <v>700</v>
+      </c>
+      <c r="D86">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>260</v>
+      </c>
+      <c r="C87">
+        <v>700</v>
+      </c>
+      <c r="D87">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>260</v>
+      </c>
+      <c r="C88">
+        <v>700</v>
+      </c>
+      <c r="D88">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>260</v>
+      </c>
+      <c r="C89">
+        <v>700</v>
+      </c>
+      <c r="D89">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>92</v>
+      </c>
+      <c r="B90">
+        <v>260</v>
+      </c>
+      <c r="C90">
+        <v>700</v>
+      </c>
+      <c r="D90">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91">
+        <v>260</v>
+      </c>
+      <c r="C91">
+        <v>700</v>
+      </c>
+      <c r="D91">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92">
+        <v>260</v>
+      </c>
+      <c r="C92">
+        <v>700</v>
+      </c>
+      <c r="D92">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Economy/Лист Microsoft Excel.xlsx
+++ b/Assets/Economy/Лист Microsoft Excel.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A220E5-BC90-41F0-BAC6-AD9767866943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84165DBE-45A1-415F-AF89-44DB7455DD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Плащ</t>
   </si>
@@ -302,6 +302,15 @@
   </si>
   <si>
     <t>Бутылка с водой</t>
+  </si>
+  <si>
+    <t>Жидкая удача I</t>
+  </si>
+  <si>
+    <t>Жидкая удача II</t>
+  </si>
+  <si>
+    <t>Жидкая удача III</t>
   </si>
 </sst>
 </file>
@@ -643,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86:D92"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1940,6 +1949,21 @@
       </c>
       <c r="D92">
         <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Economy/Лист Microsoft Excel.xlsx
+++ b/Assets/Economy/Лист Microsoft Excel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84165DBE-45A1-415F-AF89-44DB7455DD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB68AF96-12E8-4C85-BDC1-2FB0ED21FE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Плащ</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>Жидкая удача III</t>
+  </si>
+  <si>
+    <t>Камзол</t>
   </si>
 </sst>
 </file>
@@ -652,18 +655,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -677,7 +680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -691,7 +694,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -705,7 +708,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -719,7 +722,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -733,7 +736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -747,7 +750,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -761,7 +764,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -775,7 +778,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -789,7 +792,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -803,7 +806,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -817,7 +820,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -831,7 +834,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -845,7 +848,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -859,7 +862,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -873,7 +876,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -887,7 +890,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -901,7 +904,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -915,7 +918,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -929,7 +932,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -943,7 +946,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -957,7 +960,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -971,7 +974,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -985,7 +988,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1013,7 +1016,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1041,7 +1044,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1097,7 +1100,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1111,7 +1114,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1125,7 +1128,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1139,7 +1142,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1181,7 +1184,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1195,7 +1198,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -1209,7 +1212,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -1223,7 +1226,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -1251,7 +1254,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1265,7 +1268,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -1279,7 +1282,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1293,7 +1296,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -1307,7 +1310,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -1321,7 +1324,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1349,7 +1352,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -1405,7 +1408,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
@@ -1419,7 +1422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -1433,7 +1436,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -1447,7 +1450,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -1475,7 +1478,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -1503,7 +1506,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -1517,7 +1520,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -1531,7 +1534,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -1545,7 +1548,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -1559,7 +1562,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -1573,7 +1576,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -1587,7 +1590,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -1601,7 +1604,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -1615,7 +1618,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -1643,7 +1646,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -1657,7 +1660,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -1671,7 +1674,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -1685,7 +1688,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -1699,7 +1702,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -1713,7 +1716,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -1727,7 +1730,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -1741,7 +1744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -1755,7 +1758,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -1769,7 +1772,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -1783,7 +1786,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -1797,7 +1800,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -1811,7 +1814,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -1825,7 +1828,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -1839,7 +1842,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -1853,7 +1856,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -1867,7 +1870,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -1881,7 +1884,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -1895,7 +1898,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -1909,7 +1912,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -1923,7 +1926,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -1937,7 +1940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -1951,19 +1954,60 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>260</v>
+      </c>
+      <c r="C93">
+        <v>700</v>
+      </c>
+      <c r="D93">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>260</v>
+      </c>
+      <c r="C94">
+        <v>700</v>
+      </c>
+      <c r="D94">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>97</v>
+      </c>
+      <c r="B95">
+        <v>260</v>
+      </c>
+      <c r="C95">
+        <v>700</v>
+      </c>
+      <c r="D95">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96">
+        <v>260</v>
+      </c>
+      <c r="C96">
+        <v>700</v>
+      </c>
+      <c r="D96">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1978,7 +2022,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1990,7 +2034,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Economy/Лист Microsoft Excel.xlsx
+++ b/Assets/Economy/Лист Microsoft Excel.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84165DBE-45A1-415F-AF89-44DB7455DD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D4D462-F944-4F64-98A7-DA08FB787E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4968" yWindow="1284" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Плащ</t>
   </si>
@@ -311,6 +311,54 @@
   </si>
   <si>
     <t>Жидкая удача III</t>
+  </si>
+  <si>
+    <t>Прилив сил I</t>
+  </si>
+  <si>
+    <t>Прилив сил II</t>
+  </si>
+  <si>
+    <t>Прилив сил III</t>
+  </si>
+  <si>
+    <t>Обострение чувств I</t>
+  </si>
+  <si>
+    <t>Обострение чувств II</t>
+  </si>
+  <si>
+    <t>Обострение чувств III</t>
+  </si>
+  <si>
+    <t>Пояс</t>
+  </si>
+  <si>
+    <t>Кожанные ботинки</t>
+  </si>
+  <si>
+    <t>Шляпа мага</t>
+  </si>
+  <si>
+    <t>Шлем паладина</t>
+  </si>
+  <si>
+    <t>Железный доспех</t>
+  </si>
+  <si>
+    <t>Железные ботинки</t>
+  </si>
+  <si>
+    <t>Железный шлем</t>
+  </si>
+  <si>
+    <t>Кожанная броня</t>
+  </si>
+  <si>
+    <t>Кожанный шлем</t>
+  </si>
+  <si>
+    <t>Деревянная броня</t>
   </si>
 </sst>
 </file>
@@ -652,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1964,6 +2012,86 @@
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Economy/Лист Microsoft Excel.xlsx
+++ b/Assets/Economy/Лист Microsoft Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D4D462-F944-4F64-98A7-DA08FB787E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE27DAA-69CC-4F7A-A4CC-0088B174685A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4968" yWindow="1284" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Плащ</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>Деревянная броня</t>
+  </si>
+  <si>
+    <t>Камзол</t>
   </si>
 </sst>
 </file>
@@ -700,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2092,6 +2095,11 @@
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
